--- a/Timesheets/dokumenty/[Zasiadczyk, Katarzyna].xlsx
+++ b/Timesheets/dokumenty/[Zasiadczyk, Katarzyna].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="17640" windowHeight="6750"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="17640" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Załącznik nr 2</t>
   </si>
@@ -99,40 +99,49 @@
     <t>Asystentka Kierownika Kontraktu</t>
   </si>
   <si>
-    <t>wydawanie not, rejestrowanie dokumentacji, narada koordynacyjna, sporz?dzeni notatki, przygotowywanie kart pracy, wykazu czynno?ci</t>
-  </si>
-  <si>
-    <t>szkolenie z Timesheet personelu czasowego oraz sta?ego, rejestrowanie dokumentacji, wydawanie not</t>
-  </si>
-  <si>
-    <t>rejestrowanie dokumentacji, wydawanie not,</t>
-  </si>
-  <si>
-    <t>uk?adanie dokumentacji, dostarczenie dokumentacji d Zamawaij?cego (Pozna?), wydawanie pism</t>
-  </si>
-  <si>
-    <t>przygotowywanie Planu nadzoru do wydania, wydawanie not, organizacja biura w Bonikowie, rejestrowaanie dokumentacji, wyja?nianie p?yt pod rowami</t>
-  </si>
-  <si>
-    <t>Narad koordynacyjna, przygotowywanie notatki z narady koordynacyjnej do wydania, przygotowywanie do wydania Planu Nadzoru, wydawanie not,</t>
-  </si>
-  <si>
-    <t>rejestrowanie dokumentacji, wydawanie not, wydawanie dokumentacji</t>
-  </si>
-  <si>
-    <t>rejestrowanie dokumentacji, ywdawanie not, organizacja biura</t>
-  </si>
-  <si>
-    <t>uk?adanie dokumentacji, rejestrowanie dokumentacji, wydawanie miesi?cznych protoko?ów akceptacji</t>
-  </si>
-  <si>
-    <t>rejestrowanie dokumentacji, poprawa planu nadzoru, wydawanie dokumentacji, rejestrowanie dokumentacji, przygotowywanie notatki z rady budowy</t>
-  </si>
-  <si>
-    <t>rada budowy w Bonikowie, wydawanie notatki, wydawanie not, przygotowywanie planu nadzoru do wydania</t>
-  </si>
-  <si>
-    <t>organizacja biura w Bonikowie, przygotowywanie planu nadzoru do wydania, rejeestrowanie domkumentacji, wydawanie not</t>
+    <t>Bonikowo. rejestrowanie dokumentacji, _x000D_; przygotowywanie dokumentacji do wydania</t>
+  </si>
+  <si>
+    <t>Bonikowo</t>
+  </si>
+  <si>
+    <t>Bonikowo. rejestrowanie dokumentacji,_x000D_; przygotowywanie dokumentacji do wydania, organizacja biura</t>
+  </si>
+  <si>
+    <t>Bonikowo. rejestrowanie dokumentacji, wydawani dokumentacji, przygotowywanie notatki na naradę koordynacyjna</t>
+  </si>
+  <si>
+    <t>Bonikowo. przygotowywanie notatki na naradę koordynacyjną,_x000D_; wydawanie dokumentacji, rejestrowanie dokumentacji</t>
+  </si>
+  <si>
+    <t>Bonikowo. Narada Koordynacyjna. Rejestrowanie dokumentacji. Wydawanie dokumentów.</t>
+  </si>
+  <si>
+    <t>Bonikowo. Rejestrowanie dokumentacji. Wydawanie dokumentów.</t>
+  </si>
+  <si>
+    <t>Bonikowo. rejestrowanie dokumentacji, wydawanie dokumentów</t>
+  </si>
+  <si>
+    <t>Bonikowo. rejestrowanie dokumnetów, _x000D_; przygotowywanie notatki na naradę koordynacyjną, wyjaśnianie dokumentacji projektowej, wydawanie dokumentów</t>
+  </si>
+  <si>
+    <t>Bonikowo. rejestrowanie dokumentacji, wydawanie not, organizacja biura</t>
+  </si>
+  <si>
+    <t>Bonikowo. rejetsrowanie doumentacji, wydawanie not, organizacja biura</t>
+  </si>
+  <si>
+    <t>Bonikowo. Rejestrowanie dokuymnetacji, sprawdzanie dokumentacji, wydawanie not</t>
+  </si>
+  <si>
+    <t>Bonikowo. Rejestrowanie dokuymnetacji, sprawdzanie dokumentacji, wydawanie not, przygotowywanie notatki na Radę Budowy</t>
+  </si>
+  <si>
+    <t>Bonikowo. Przygotowywanie notatki na radę techniczną, wydawanie not, rejestrowanie dokumentacji</t>
+  </si>
+  <si>
+    <t>Bonikowo. Narada koordynacyjna, wydawanie not, rejestrowanie dokumentacji,</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1304,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="str">
         <f xml:space="preserve"> "Wykaz Czynności nr PS/WC/" &amp; TEXT(C9, "00") &amp; "/" &amp;G9</f>
-        <v>Wykaz Czynności nr PS/WC/02/2017</v>
+        <v>Wykaz Czynności nr PS/WC/05/2017</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1369,7 +1378,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
@@ -1401,12 +1410,12 @@
       </c>
       <c r="G10" s="44"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16">
-        <v>42765</v>
+        <v>42856</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>14</v>
@@ -1416,43 +1425,45 @@
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B24" si="0">B11+1</f>
-        <v>42766</v>
+        <v>42857</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>42767</v>
+        <v>42858</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="48" t="s">
-        <v>26</v>
-      </c>
+      <c r="F13" s="48"/>
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
-        <v>42768</v>
+        <v>42859</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>17</v>
@@ -1460,9 +1471,11 @@
       <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="49"/>
     </row>
@@ -1470,7 +1483,7 @@
       <c r="A15" s="46"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
-        <v>42769</v>
+        <v>42860</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>18</v>
@@ -1478,9 +1491,11 @@
       <c r="D15" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="49"/>
     </row>
@@ -1488,7 +1503,7 @@
       <c r="A16" s="46"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
-        <v>42770</v>
+        <v>42861</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>19</v>
@@ -1502,7 +1517,7 @@
       <c r="A17" s="47"/>
       <c r="B17" s="19">
         <f t="shared" si="0"/>
-        <v>42771</v>
+        <v>42862</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>20</v>
@@ -1514,11 +1529,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B18" s="16">
         <f t="shared" si="0"/>
-        <v>42772</v>
+        <v>42863</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>14</v>
@@ -1526,9 +1541,11 @@
       <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" s="49"/>
     </row>
@@ -1536,7 +1553,7 @@
       <c r="A19" s="46"/>
       <c r="B19" s="16">
         <f t="shared" si="0"/>
-        <v>42773</v>
+        <v>42864</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>15</v>
@@ -1544,7 +1561,9 @@
       <c r="D19" s="17">
         <v>1</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="48" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +1573,7 @@
       <c r="A20" s="46"/>
       <c r="B20" s="16">
         <f t="shared" si="0"/>
-        <v>42774</v>
+        <v>42865</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>16</v>
@@ -1562,7 +1581,9 @@
       <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F20" s="48" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1593,7 @@
       <c r="A21" s="46"/>
       <c r="B21" s="16">
         <f t="shared" si="0"/>
-        <v>42775</v>
+        <v>42866</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>17</v>
@@ -1580,7 +1601,9 @@
       <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="48" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1613,7 @@
       <c r="A22" s="46"/>
       <c r="B22" s="16">
         <f t="shared" si="0"/>
-        <v>42776</v>
+        <v>42867</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>18</v>
@@ -1598,9 +1621,11 @@
       <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="49"/>
     </row>
@@ -1608,7 +1633,7 @@
       <c r="A23" s="46"/>
       <c r="B23" s="19">
         <f t="shared" si="0"/>
-        <v>42777</v>
+        <v>42868</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>19</v>
@@ -1622,7 +1647,7 @@
       <c r="A24" s="47"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
-        <v>42778</v>
+        <v>42869</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>20</v>
@@ -1634,11 +1659,11 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B25" s="16">
         <f>B24+1</f>
-        <v>42779</v>
+        <v>42870</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>14</v>
@@ -1646,9 +1671,11 @@
       <c r="D25" s="17">
         <v>1</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F25" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="49"/>
     </row>
@@ -1656,7 +1683,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="16">
         <f t="shared" ref="B26:B45" si="1">B25+1</f>
-        <v>42780</v>
+        <v>42871</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>15</v>
@@ -1664,9 +1691,11 @@
       <c r="D26" s="17">
         <v>1</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F26" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="49"/>
     </row>
@@ -1674,7 +1703,7 @@
       <c r="A27" s="46"/>
       <c r="B27" s="16">
         <f t="shared" si="1"/>
-        <v>42781</v>
+        <v>42872</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>16</v>
@@ -1682,9 +1711,11 @@
       <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F27" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="49"/>
     </row>
@@ -1692,7 +1723,7 @@
       <c r="A28" s="46"/>
       <c r="B28" s="16">
         <f t="shared" si="1"/>
-        <v>42782</v>
+        <v>42873</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>17</v>
@@ -1700,9 +1731,11 @@
       <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="F28" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="49"/>
     </row>
@@ -1710,21 +1743,27 @@
       <c r="A29" s="46"/>
       <c r="B29" s="16">
         <f t="shared" si="1"/>
-        <v>42783</v>
+        <v>42874</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="48"/>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" s="19">
         <f t="shared" si="1"/>
-        <v>42784</v>
+        <v>42875</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>19</v>
@@ -1738,7 +1777,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="19">
         <f t="shared" si="1"/>
-        <v>42785</v>
+        <v>42876</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>20</v>
@@ -1750,81 +1789,111 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B32" s="16">
         <f t="shared" si="1"/>
-        <v>42786</v>
+        <v>42877</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" s="16">
         <f t="shared" si="1"/>
-        <v>42787</v>
+        <v>42878</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="48"/>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="46"/>
       <c r="B34" s="16">
         <f t="shared" si="1"/>
-        <v>42788</v>
+        <v>42879</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="48"/>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="46"/>
       <c r="B35" s="16">
         <f t="shared" si="1"/>
-        <v>42789</v>
+        <v>42880</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="48"/>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
       <c r="B36" s="16">
         <f t="shared" si="1"/>
-        <v>42790</v>
+        <v>42881</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="48"/>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
       <c r="B37" s="19">
         <f t="shared" si="1"/>
-        <v>42791</v>
+        <v>42882</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>19</v>
@@ -1838,7 +1907,7 @@
       <c r="A38" s="47"/>
       <c r="B38" s="19">
         <f t="shared" si="1"/>
-        <v>42792</v>
+        <v>42883</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>20</v>
@@ -1850,53 +1919,71 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B39" s="16">
         <f t="shared" si="1"/>
-        <v>42793</v>
+        <v>42884</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="48"/>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="16">
         <f t="shared" si="1"/>
-        <v>42794</v>
+        <v>42885</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="48"/>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G40" s="49"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
       <c r="B41" s="16">
         <f t="shared" si="1"/>
-        <v>42795</v>
+        <v>42886</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="48"/>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>40</v>
+      </c>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" s="16">
         <f t="shared" si="1"/>
-        <v>42796</v>
+        <v>42887</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>17</v>
@@ -1910,7 +1997,7 @@
       <c r="A43" s="46"/>
       <c r="B43" s="16">
         <f t="shared" si="1"/>
-        <v>42797</v>
+        <v>42888</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>18</v>
@@ -1924,7 +2011,7 @@
       <c r="A44" s="46"/>
       <c r="B44" s="19">
         <f t="shared" si="1"/>
-        <v>42798</v>
+        <v>42889</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>19</v>
@@ -1938,7 +2025,7 @@
       <c r="A45" s="47"/>
       <c r="B45" s="19">
         <f t="shared" si="1"/>
-        <v>42799</v>
+        <v>42890</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>20</v>
@@ -1954,7 +2041,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="25">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
